--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\io-model\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A7503C-6834-475B-87CF-A828D044C2B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
+    <workbookView xWindow="40515" yWindow="4395" windowWidth="20625" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="WMITR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Congressional Budget Office</t>
-  </si>
-  <si>
-    <t>Effective Marginal Tax Rates for Low- and Moderate-Income Workers</t>
-  </si>
-  <si>
-    <t>http://www.cbo.gov/publication/43709</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Workers</t>
   </si>
@@ -40,25 +40,37 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Summary, headline of third paragraph</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>450% of the federal poverty level.</t>
-  </si>
-  <si>
-    <t>This is the average marginal income tax rate faced by workers who earn less than</t>
-  </si>
-  <si>
     <t>Marginal Income Tax Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>Trading Economics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of Countries by Personal Income Tax Rate </t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/country-list/personal-income-tax-rate?continent=europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union </t>
+  </si>
+  <si>
+    <t>Accessed 20th May 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that this source does not specify whether this income tax applies to the average or workers, but it is likely that it is the average. </t>
+  </si>
+  <si>
+    <t>We assume that the overall difference between the overall average and worker-only value is insignificant.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,6 +221,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -244,6 +273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,64 +465,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
-        <v>2012</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -484,32 +537,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\io-model\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adolg\Dropbox\Energy Innovation IO\Deliverable IO files\EU\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A7503C-6834-475B-87CF-A828D044C2B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9741069-D092-4755-BF28-9336ECABBD47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40515" yWindow="4395" windowWidth="20625" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="WMITR" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="3" r:id="rId2"/>
+    <sheet name="WMITR" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Workers</t>
   </si>
@@ -46,32 +50,47 @@
     <t>Marginal Income Tax Rate (dimensionless)</t>
   </si>
   <si>
-    <t>Trading Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of Countries by Personal Income Tax Rate </t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/country-list/personal-income-tax-rate?continent=europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Union </t>
-  </si>
-  <si>
-    <t>Accessed 20th May 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note that this source does not specify whether this income tax applies to the average or workers, but it is likely that it is the average. </t>
-  </si>
-  <si>
-    <t>We assume that the overall difference between the overall average and worker-only value is insignificant.</t>
+    <t>Income Tax Revenue</t>
+  </si>
+  <si>
+    <t>Average real tax rate, EU28</t>
+  </si>
+  <si>
+    <t>Ratio effective marginal tax rate: average tax rate (US)</t>
+  </si>
+  <si>
+    <t>https://www.institutmolinari.org/IMG/pdf/tax-burden-eu-2018.pdf</t>
+  </si>
+  <si>
+    <t>EPS model; US WMITR</t>
+  </si>
+  <si>
+    <t>Institu Economique Molinari</t>
+  </si>
+  <si>
+    <t>The Tax Burden of Typical Workers in the EU 28 - 2018</t>
+  </si>
+  <si>
+    <t>EU average real tax rates, 2010-2016, combined average</t>
+  </si>
+  <si>
+    <t>Estimated effective marginal tax rate, EU28</t>
+  </si>
+  <si>
+    <t>(including social security contributions and VAT as well as income tax) by the US ratio</t>
+  </si>
+  <si>
+    <t>of marginal income tax rate: average income tax rate.</t>
+  </si>
+  <si>
+    <t>In the absence of data about worker marginal income tax rate, we scale the average tax rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +114,330 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -112,12 +445,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -127,10 +612,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="47">
+    <cellStyle name="20% - Accent1" xfId="23" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="27" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="31" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="35" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="39" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="43" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="24" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="28" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="32" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="36" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="40" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="44" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="25" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="29" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="33" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="37" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="41" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="45" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="22" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="26" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="30" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="34" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="38" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="42" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="11" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="15" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="17" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="20" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="10" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="9" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="13" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="16" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="12" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="46" xr:uid="{B68D24ED-2898-4F08-A697-BFF405082D30}"/>
+    <cellStyle name="Note" xfId="19" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="14" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="21" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="18" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,103 +1002,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <f>30/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <f>B2*B3</f>
+        <v>0.55625000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.265625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.38600000000000001</v>
+      <c r="B2" s="8">
+        <f>Calculations!B4</f>
+        <v>0.55625000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adolg\Dropbox\Energy Innovation IO\Deliverable IO files\EU\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\io-model\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9741069-D092-4755-BF28-9336ECABBD47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="18840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,9 +614,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="23" builtinId="30" customBuiltin="1"/>
@@ -658,9 +657,9 @@
     <cellStyle name="Linked Cell" xfId="16" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="12" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 4" xfId="46" xr:uid="{B68D24ED-2898-4F08-A697-BFF405082D30}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="46"/>
     <cellStyle name="Note" xfId="19" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="14" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -757,23 +756,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -809,23 +791,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1001,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1011,17 +976,17 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1035,48 +1000,48 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1088,7 +1053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1098,24 +1063,24 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.265625" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>0.44500000000000001</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1152,21 +1117,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <f>Calculations!B4</f>
         <v>0.55625000000000002</v>
       </c>

--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\io-model\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\io-model\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E2CA2F-3D00-4B79-9E67-A3E9C68B7DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19500" windowHeight="18840"/>
+    <workbookView xWindow="-26955" yWindow="1065" windowWidth="22650" windowHeight="15795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Workers</t>
   </si>
@@ -58,21 +59,12 @@
     <t>Ratio effective marginal tax rate: average tax rate (US)</t>
   </si>
   <si>
-    <t>https://www.institutmolinari.org/IMG/pdf/tax-burden-eu-2018.pdf</t>
-  </si>
-  <si>
     <t>EPS model; US WMITR</t>
   </si>
   <si>
     <t>Institu Economique Molinari</t>
   </si>
   <si>
-    <t>The Tax Burden of Typical Workers in the EU 28 - 2018</t>
-  </si>
-  <si>
-    <t>EU average real tax rates, 2010-2016, combined average</t>
-  </si>
-  <si>
     <t>Estimated effective marginal tax rate, EU28</t>
   </si>
   <si>
@@ -83,12 +75,42 @@
   </si>
   <si>
     <t>In the absence of data about worker marginal income tax rate, we scale the average tax rate</t>
+  </si>
+  <si>
+    <t>Number of workers, EU27</t>
+  </si>
+  <si>
+    <t>Number of workers, UK</t>
+  </si>
+  <si>
+    <t>The Tax Burden on Global Workers: A Comparative Index</t>
+  </si>
+  <si>
+    <t>https://www.institutmolinari.org/wp-content/uploads/2022/07/tax_burden_on_global_workers2022.pdf</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.TLF.TOTL.IN?locations=EU</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.TLF.TOTL.IN?locations=GB</t>
+  </si>
+  <si>
+    <t>Average real tax rate, UK</t>
+  </si>
+  <si>
+    <t>Estimated effective marginal tax rate, EU27</t>
+  </si>
+  <si>
+    <t>EU average real tax rates, 2018-2022 combined average, UK real tax rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,10 +635,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="23" builtinId="30" customBuiltin="1"/>
@@ -657,9 +679,9 @@
     <cellStyle name="Linked Cell" xfId="16" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="12" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="46"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 4" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Note" xfId="19" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="14" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -756,6 +778,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -791,6 +830,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -966,27 +1022,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1000,50 +1056,50 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1053,52 +1109,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.265625" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
-        <v>0.44500000000000001</v>
+      <c r="B2" s="10">
+        <f>AVERAGE(44.5%,44.5%,44.3%,44.2%,43.9%)</f>
+        <v>0.44279999999999997</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>216787964</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>34653319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10">
+        <f>(B5*B2-B6*B3)/(B5-B6)</f>
+        <v>0.45720284053755944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B9" s="6">
         <f>30/24</f>
         <v>1.25</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7">
-        <f>B2*B3</f>
-        <v>0.55625000000000002</v>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10">
+        <f>B7*B9</f>
+        <v>0.57150355067194925</v>
       </c>
     </row>
   </sheetData>
@@ -1107,33 +1206,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.265625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
-        <f>Calculations!B4</f>
-        <v>0.55625000000000002</v>
+      <c r="B2" s="8">
+        <f>Calculations!B10</f>
+        <v>0.57150355067194925</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\io-model\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E2CA2F-3D00-4B79-9E67-A3E9C68B7DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
+    <workbookView xWindow="-26955" yWindow="1065" windowWidth="22650" windowHeight="15795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="WMITR" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="3" r:id="rId2"/>
+    <sheet name="WMITR" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Congressional Budget Office</t>
-  </si>
-  <si>
-    <t>Effective Marginal Tax Rates for Low- and Moderate-Income Workers</t>
-  </si>
-  <si>
-    <t>http://www.cbo.gov/publication/43709</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Workers</t>
   </si>
@@ -40,26 +44,74 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Summary, headline of third paragraph</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>450% of the federal poverty level.</t>
-  </si>
-  <si>
-    <t>This is the average marginal income tax rate faced by workers who earn less than</t>
-  </si>
-  <si>
     <t>Marginal Income Tax Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>Income Tax Revenue</t>
+  </si>
+  <si>
+    <t>Average real tax rate, EU28</t>
+  </si>
+  <si>
+    <t>Ratio effective marginal tax rate: average tax rate (US)</t>
+  </si>
+  <si>
+    <t>EPS model; US WMITR</t>
+  </si>
+  <si>
+    <t>Institu Economique Molinari</t>
+  </si>
+  <si>
+    <t>Estimated effective marginal tax rate, EU28</t>
+  </si>
+  <si>
+    <t>(including social security contributions and VAT as well as income tax) by the US ratio</t>
+  </si>
+  <si>
+    <t>of marginal income tax rate: average income tax rate.</t>
+  </si>
+  <si>
+    <t>In the absence of data about worker marginal income tax rate, we scale the average tax rate</t>
+  </si>
+  <si>
+    <t>Number of workers, EU27</t>
+  </si>
+  <si>
+    <t>Number of workers, UK</t>
+  </si>
+  <si>
+    <t>The Tax Burden on Global Workers: A Comparative Index</t>
+  </si>
+  <si>
+    <t>https://www.institutmolinari.org/wp-content/uploads/2022/07/tax_burden_on_global_workers2022.pdf</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.TLF.TOTL.IN?locations=EU</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.TLF.TOTL.IN?locations=GB</t>
+  </si>
+  <si>
+    <t>Average real tax rate, UK</t>
+  </si>
+  <si>
+    <t>Estimated effective marginal tax rate, EU27</t>
+  </si>
+  <si>
+    <t>EU average real tax rates, 2018-2022 combined average, UK real tax rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +135,330 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -100,12 +466,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -115,10 +633,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="47">
+    <cellStyle name="20% - Accent1" xfId="23" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="27" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="31" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="35" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="39" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="43" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="24" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="28" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="32" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="36" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="40" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="44" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="25" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="29" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="33" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="37" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="41" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="45" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="22" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="26" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="30" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="34" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="38" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="42" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="11" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="15" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="17" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="20" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="10" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="9" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="13" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="16" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="12" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 4" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Note" xfId="19" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="14" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="21" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="18" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -209,6 +778,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -244,6 +830,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,97 +1022,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>8</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10">
+        <f>AVERAGE(44.5%,44.5%,44.3%,44.2%,43.9%)</f>
+        <v>0.44279999999999997</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>216787964</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>34653319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10">
+        <f>(B5*B2-B6*B3)/(B5-B6)</f>
+        <v>0.45720284053755944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <f>30/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10">
+        <f>B7*B9</f>
+        <v>0.57150355067194925</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.265625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <f>Calculations!B10</f>
+        <v>0.57150355067194925</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -515,4 +515,259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A1D904A-F4C7-40AD-80B1-A8D978CE97C2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFBD00F-66E4-4903-BD44-FC43E5D1664D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4248833-4490-4C41-9CF5-E0D9198BCC7F}"/>
 </file>
--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -515,259 +515,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A1D904A-F4C7-40AD-80B1-A8D978CE97C2}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFBD00F-66E4-4903-BD44-FC43E5D1664D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4248833-4490-4C41-9CF5-E0D9198BCC7F}"/>
 </file>